--- a/biology/Médecine/Mayo_Clinic/Mayo_Clinic.xlsx
+++ b/biology/Médecine/Mayo_Clinic/Mayo_Clinic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Mayo Clinic (Mayo Clinic College of Medicine and Science) est une fédération hospitalo-universitaire et de recherche américaine. De réputation mondiale, son siège se trouve à Rochester, dans le Minnesota. En 2024, la Mayo Clinic est classée meilleur hôpital au monde par le magazine Newsweek[1]. En 2023-2024, la Mayo Clinic est aussi classée meilleur hôpital des États-Unis, toutes spécialités confondues, par le magazine US News &amp; World Report[2]. La Mayo Clinic a plus de 60 000 employés[3].
+La Mayo Clinic (Mayo Clinic College of Medicine and Science) est une fédération hospitalo-universitaire et de recherche américaine. De réputation mondiale, son siège se trouve à Rochester, dans le Minnesota. En 2024, la Mayo Clinic est classée meilleur hôpital au monde par le magazine Newsweek. En 2023-2024, la Mayo Clinic est aussi classée meilleur hôpital des États-Unis, toutes spécialités confondues, par le magazine US News &amp; World Report. La Mayo Clinic a plus de 60 000 employés.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Mayo Clinic sert d'abord de cadre aux activités professionnelles de trois médecins, William Worrall Mayo (1819-1911) et ses deux fils, William James Mayo (1861-1939) et Charles Horace Mayo (1865-1939). C'est en 1846 que W.W. Mayo émigre de sa région d'origine de Salford, dans l'ouest de l'Angleterre, aux États-Unis où il obtient son diplôme de médecine en 1850 dans l'État d'Indiana. Pendant la guerre de Sécession il est nommé chirurgien attitré du bureau de recrutement du Minnesota et en 1864 il se fixe avec ses deux fils à Rochester où se trouve alors le quartier général du recrutement de l'armée de l'Union.
 Les deux fils du Dr W.W. Mayo commencent leur formation médicale aux côtés de leur père, en l'observant, puis en l'assistant lors de ses visites aux patients et plus tard dans ses autopsies.  Le « Dr Will »  (comme on le surnommait) est diplômé de l'Université du Michigan en 1883, et le « Dr Charlie » du Chicago Medical College de la Northwestern University en 1888. Après quoi tous deux reviennent exercer à Rochester où ils continuent à aider leur père dans sa pratique médicale.
@@ -546,7 +560,9 @@
           <t>Au début du XXIe siècle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les plus anciennes et principales installations se trouvent à Rochester, mais d'autres hôpitaux et professionnels de santé dépendant directement de la fondation sont répartis sur deux autres sites aux États-Unis : Jacksonville en Floride et Phoenix en Arizona. De plus, la Mayo Clinic dirige plusieurs cliniques et hôpitaux de taille plus modeste dans le  Minnesota, l'Iowa et le Wisconsin, l'ensemble étant regroupé sous l'étiquette Mayo Health System.
 Le terme « clinique » dans le nom de la Mayo Clinic prête quelque peu à confusion, car il désigne habituellement une petite structure de soins ambulatoires telle que l'était initialement la Mayo Clinic, alors que celle-ci est devenue un système de soins régional pour tout le sud du Minnesota, le Mayo Health System offrant toute la gamme des soins ambulatoires et hospitaliers. C'est aussi une organisation de recherche médicale à l'échelle nationale et de renommée internationale. L'ancien nom a toutefois été gardé pour des raisons historiques et par nostalgie.
@@ -585,7 +601,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Louis Wilson : technique des biopsies extemporanées en 1905.
 William H. Goeckerman : utilisation du goudron et des rayons ultraviolets pour traiter le psoriasis en 1925.
@@ -626,32 +644,171 @@
           <t>Patients célèbres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Des célébrités du monde entier viennent fréquemment se faire soigner à la Mayo Clinic. Parmi les patients bien connus, anciens et actuels, on peut citer :
-Hommes politiques
-Franklin D. Roosevelt, président des États-Unis
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des célébrités du monde entier viennent fréquemment se faire soigner à la Mayo Clinic. Parmi les patients bien connus, anciens et actuels, on peut citer :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mayo_Clinic</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mayo_Clinic</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Patients célèbres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hommes politiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Franklin D. Roosevelt, président des États-Unis
 John F. Kennedy, président des États-Unis
 Ronald Reagan, président des États-Unis
 George H. W. Bush, président des États-Unis
 Le roi Hussein de Jordanie
 l'évangéliste Billy Graham
-Le 14e dalaï-lama[4]
-John McCain, sénateur républicain[5]
-Musiciens
-Sir Elton John
+Le 14e dalaï-lama
+John McCain, sénateur républicain</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mayo_Clinic</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mayo_Clinic</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Patients célèbres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Musiciens</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sir Elton John
 George Harrison (The Beatles)
 Le chanteur folk Art Garfunkel
 Le musicien de jazz Benny Goodman
 Le guitariste Eddie Van Halen
 Bono, membre du groupe U2
 Le chanteur Ronnie James Dio
-Céline Dion
-Écrivains
-Ernest Hemingway
-Robert Jordan
-Divers
-Juan Martin Del Potro, joueur de tennis professionnel
+Céline Dion</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mayo_Clinic</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mayo_Clinic</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Patients célèbres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Écrivains</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ernest Hemingway
+Robert Jordan</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mayo_Clinic</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mayo_Clinic</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Patients célèbres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Juan Martin Del Potro, joueur de tennis professionnel
 Patrick Volkerding, fondateur de Slackware Linux
 Larry Brown, entraîneur des Knicks de New York
 Flip Saunders, président/entraineur des Minnesota Timberwolves
@@ -660,31 +817,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mayo_Clinic</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mayo_Clinic</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mayo_Clinic</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mayo_Clinic</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Développement d'outils</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le groupe Biomedical Imaging Resource (BIR) de la Mayo Clinic est spécialisé dans la recherche en imagerie médicale. Les domaines de recherche du BIR comprennent l'acquisition, le traitement et l'analyse d'images. Le BIR développe un logiciel d'imagerie biomédicale : Analyze.
 </t>
